--- a/Cuadros/q18_new_funder.xlsx
+++ b/Cuadros/q18_new_funder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DE407F-1AB4-4BDA-B27E-AA352B416BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE80F55-BB36-4D23-93BC-B573B32C7720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q18" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="q18_q6" sheetId="3" r:id="rId3"/>
     <sheet name="q18_q9" sheetId="4" r:id="rId4"/>
     <sheet name="q18_q10" sheetId="5" r:id="rId5"/>
-    <sheet name="q18_q10_media" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">q18_q10!$A$27:$L$36</definedName>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
   <si>
     <t>Source</t>
   </si>
@@ -157,9 +156,6 @@
   </si>
   <si>
     <t>Table for 2023</t>
-  </si>
-  <si>
-    <t>Governments</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -2497,368 +2493,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2">
-        <v>45</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3">
-        <v>97</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>36</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>26</v>
-      </c>
-      <c r="I3">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>46</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>26</v>
-      </c>
-      <c r="I4">
-        <v>12</v>
-      </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5">
-        <v>139</v>
-      </c>
-      <c r="C5">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>24</v>
-      </c>
-      <c r="F5">
-        <v>61</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>39</v>
-      </c>
-      <c r="I5">
-        <v>21</v>
-      </c>
-      <c r="J5">
-        <v>14</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <v>83</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>38</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>25</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>11</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
-        <v>108</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>39</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>36</v>
-      </c>
-      <c r="I7">
-        <v>11</v>
-      </c>
-      <c r="J7">
-        <v>13</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <v>161</v>
-      </c>
-      <c r="C8">
-        <v>31</v>
-      </c>
-      <c r="D8">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>43</v>
-      </c>
-      <c r="F8">
-        <v>62</v>
-      </c>
-      <c r="G8">
-        <v>18</v>
-      </c>
-      <c r="H8">
-        <v>49</v>
-      </c>
-      <c r="I8">
-        <v>26</v>
-      </c>
-      <c r="J8">
-        <v>17</v>
-      </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9">
-        <v>34</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>56</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>35</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-      <c r="G10">
-        <v>12</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <v>21</v>
-      </c>
-      <c r="J10">
-        <v>7</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/Cuadros/q18_new_funder.xlsx
+++ b/Cuadros/q18_new_funder.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE80F55-BB36-4D23-93BC-B573B32C7720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F40317E-152F-466E-AEA7-54B493C0641B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q18" sheetId="1" r:id="rId1"/>
-    <sheet name="q18_q5" sheetId="2" r:id="rId2"/>
-    <sheet name="q18_q6" sheetId="3" r:id="rId3"/>
-    <sheet name="q18_q9" sheetId="4" r:id="rId4"/>
-    <sheet name="q18_q10" sheetId="5" r:id="rId5"/>
+    <sheet name="q18_q4agrup" sheetId="6" r:id="rId2"/>
+    <sheet name="q18_q5" sheetId="2" r:id="rId3"/>
+    <sheet name="q18_q6" sheetId="3" r:id="rId4"/>
+    <sheet name="q18_q9" sheetId="4" r:id="rId5"/>
+    <sheet name="q18_q10" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">q18_q10!$A$27:$L$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">q18_q10!$A$27:$L$36</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
   <si>
     <t>Source</t>
   </si>
@@ -156,6 +157,48 @@
   </si>
   <si>
     <t>Table for 2023</t>
+  </si>
+  <si>
+    <t>q4_awid_focus</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Multilateral</t>
+  </si>
+  <si>
+    <t>Bilateral</t>
+  </si>
+  <si>
+    <t>Philanthropic</t>
+  </si>
+  <si>
+    <t>Womens</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Ingos</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Goverment</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>No_new_funder</t>
+  </si>
+  <si>
+    <t>Other subjects</t>
+  </si>
+  <si>
+    <t>Specific AWID subjects</t>
   </si>
 </sst>
 </file>
@@ -598,6 +641,134 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>234</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>54</v>
+      </c>
+      <c r="F2">
+        <v>86</v>
+      </c>
+      <c r="G2">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <v>26</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>607</v>
+      </c>
+      <c r="C3">
+        <v>71</v>
+      </c>
+      <c r="D3">
+        <v>72</v>
+      </c>
+      <c r="E3">
+        <v>141</v>
+      </c>
+      <c r="F3">
+        <v>255</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>171</v>
+      </c>
+      <c r="I3">
+        <v>98</v>
+      </c>
+      <c r="J3">
+        <v>65</v>
+      </c>
+      <c r="K3">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -801,7 +972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
@@ -1081,7 +1252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
@@ -1323,11 +1494,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>

--- a/Cuadros/q18_new_funder.xlsx
+++ b/Cuadros/q18_new_funder.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F40317E-152F-466E-AEA7-54B493C0641B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="q18" sheetId="1" r:id="rId1"/>
-    <sheet name="q18_q4agrup" sheetId="6" r:id="rId2"/>
-    <sheet name="q18_q5" sheetId="2" r:id="rId3"/>
-    <sheet name="q18_q6" sheetId="3" r:id="rId4"/>
-    <sheet name="q18_q9" sheetId="4" r:id="rId5"/>
-    <sheet name="q18_q10" sheetId="5" r:id="rId6"/>
+    <sheet name="q18" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="q18_q4agrup" sheetId="6" state="visible" r:id="rId2"/>
+    <sheet name="q18_q5" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="q18_q6" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="q18_q9" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="q18_q10" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="q18_q4_total" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">q18_q10!$A$27:$L$36</definedName>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Source</t>
   </si>
@@ -199,13 +193,74 @@
   </si>
   <si>
     <t>Specific AWID subjects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGBTIQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anticaste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Countering anti-gender &amp; anti-rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harm reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disability rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philanthropic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Womens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goverment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No_new_funder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -531,14 +586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,91 +601,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>841</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>96</v>
       </c>
     </row>
@@ -641,14 +696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -686,79 +741,79 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>234</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>35</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>54</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>86</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>19</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>60</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>37</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>26</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>56</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>607</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>71</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>72</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>141</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>255</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>50</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>171</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>98</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>65</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>18</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>69</v>
       </c>
     </row>
@@ -769,14 +824,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -814,155 +869,155 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>108</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>18</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>49</v>
       </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
         <v>19</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>18</v>
       </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>4</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>18</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>707</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>95</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>95</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>170</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>284</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>63</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>204</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>111</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>87</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>24</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>78</v>
       </c>
     </row>
@@ -973,14 +1028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1018,231 +1073,231 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>50</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>21</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>7</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>8</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>14</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>8</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>234</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>49</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>99</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>22</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>55</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>48</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>36</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>8</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>424</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>57</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>58</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>81</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>184</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>32</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>135</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>51</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>40</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>14</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>101</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>21</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>16</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>38</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>39</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>26</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>16</v>
       </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>23</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>8</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>4</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>5</v>
       </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7">
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1253,14 +1308,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1298,193 +1353,193 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>83</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>31</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>23</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>15</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>6</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>4</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>261</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>28</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>22</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>50</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>112</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>23</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>71</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>44</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>24</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>7</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>166</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>18</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>41</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>60</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>12</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>43</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>20</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>19</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>8</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>192</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>36</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>33</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>48</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>89</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>14</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>53</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>26</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>19</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>7</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>139</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>22</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>43</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>49</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>18</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>41</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>30</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>23</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>2</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1495,21 +1550,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1547,354 +1602,354 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>68</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>27</v>
       </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
         <v>16</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>8</v>
       </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
         <v>4</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>114</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>8</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>18</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>47</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>6</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>33</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>20</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>14</v>
       </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>99</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>14</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>17</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>50</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>7</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>24</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>10</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>12</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>125</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>24</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>52</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>7</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>33</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>20</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>10</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>76</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>18</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>29</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>27</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>10</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>13</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>95</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>11</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>23</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>36</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>11</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>31</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>7</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>9</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>4</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>144</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>29</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>25</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>39</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>56</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>15</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>43</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>27</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>18</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>8</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>28</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
         <v>11</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>13</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>11</v>
       </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>4</v>
       </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>49</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>12</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>31</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>16</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>7</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>19</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>6</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1932,354 +1987,354 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>46</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>16</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>7</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>9</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>4</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>4</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16">
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>93</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>7</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>5</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>14</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>33</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>6</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>24</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>19</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>5</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>2</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>105</v>
       </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>13</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>52</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>8</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>32</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>11</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>14</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>2</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>143</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>21</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>18</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>27</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>65</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>5</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>39</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>22</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>16</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>4</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>75</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>8</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>7</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>16</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>36</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>5</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>18</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>9</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>11</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>2</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20">
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>115</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>19</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>13</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>25</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>36</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>11</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>43</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>12</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>14</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>8</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>162</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>31</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>27</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>45</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>62</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>19</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>48</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>25</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>16</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>5</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22">
       <c r="A22" t="s">
         <v>39</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>33</v>
       </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
         <v>5</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>12</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>14</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>2</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>8</v>
       </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22">
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
         <v>5</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>1</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23">
       <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>57</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>12</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>19</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>36</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>21</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>12</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>10</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>22</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>6</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>0</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2317,345 +2372,345 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>20</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>1</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>10</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>1</v>
       </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
         <v>2</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>2</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>2</v>
       </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>85</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>6</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>6</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>10</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>28</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>4</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>20</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>16</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>7</v>
       </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30">
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>95</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>7</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>4</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>17</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>35</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>5</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>22</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>15</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>9</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>2</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31">
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>149</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>14</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>14</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>21</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>67</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>10</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>44</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>22</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>17</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>2</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32">
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>98</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>13</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>10</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>19</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>48</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>6</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>30</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>11</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>9</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>6</v>
       </c>
-      <c r="L32">
+      <c r="L32" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33">
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>114</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>15</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>12</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>28</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>45</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>7</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>33</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>13</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>16</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>6</v>
       </c>
-      <c r="L33">
+      <c r="L33" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34">
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>176</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>28</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>46</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>69</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>20</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>56</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>26</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>18</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>5</v>
       </c>
-      <c r="L34">
+      <c r="L34" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35">
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>41</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>4</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>7</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>15</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>17</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>2</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>14</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>7</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>4</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>2</v>
       </c>
-      <c r="L35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>63</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>13</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>21</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>39</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>22</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>14</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>9</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>23</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>9</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>0</v>
       </c>
-      <c r="L36">
+      <c r="L36" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2664,4 +2719,366 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="n">
+        <v>292</v>
+      </c>
+      <c r="C2" t="n">
+        <v>361</v>
+      </c>
+      <c r="D2" t="n">
+        <v>171</v>
+      </c>
+      <c r="E2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2" t="n">
+        <v>268</v>
+      </c>
+      <c r="G2" t="n">
+        <v>218</v>
+      </c>
+      <c r="H2" t="n">
+        <v>90</v>
+      </c>
+      <c r="I2" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="n">
+        <v>31</v>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>31</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="n">
+        <v>37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="n">
+        <v>27</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="n">
+        <v>73</v>
+      </c>
+      <c r="C5" t="n">
+        <v>81</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>60</v>
+      </c>
+      <c r="G5" t="n">
+        <v>63</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11</v>
+      </c>
+      <c r="I5" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="n">
+        <v>122</v>
+      </c>
+      <c r="C6" t="n">
+        <v>164</v>
+      </c>
+      <c r="D6" t="n">
+        <v>81</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>112</v>
+      </c>
+      <c r="G6" t="n">
+        <v>82</v>
+      </c>
+      <c r="H6" t="n">
+        <v>26</v>
+      </c>
+      <c r="I6" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="n">
+        <v>27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>32</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" t="n">
+        <v>23</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="n">
+        <v>71</v>
+      </c>
+      <c r="C8" t="n">
+        <v>111</v>
+      </c>
+      <c r="D8" t="n">
+        <v>37</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>96</v>
+      </c>
+      <c r="G8" t="n">
+        <v>55</v>
+      </c>
+      <c r="H8" t="n">
+        <v>28</v>
+      </c>
+      <c r="I8" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="n">
+        <v>56</v>
+      </c>
+      <c r="C9" t="n">
+        <v>58</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>47</v>
+      </c>
+      <c r="G9" t="n">
+        <v>38</v>
+      </c>
+      <c r="H9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I9" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="n">
+        <v>27</v>
+      </c>
+      <c r="C10" t="n">
+        <v>34</v>
+      </c>
+      <c r="D10" t="n">
+        <v>17</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27</v>
+      </c>
+      <c r="G10" t="n">
+        <v>21</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40</v>
+      </c>
+      <c r="C12" t="n">
+        <v>44</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>29</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>13</v>
+      </c>
+      <c r="I12" t="n">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Cuadros/q18_new_funder.xlsx
+++ b/Cuadros/q18_new_funder.xlsx
@@ -13,6 +13,7 @@
     <sheet name="q18_q9" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="q18_q10" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="q18_q4_total" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="q18_region" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">q18_q10!$A$27:$L$36</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Source</t>
   </si>
@@ -253,6 +254,27 @@
   </si>
   <si>
     <t xml:space="preserve">No_new_funder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Latin America &amp; the Caribbean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Western Europe &amp; North America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Eastern, Southeast and Central Europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Asia &amp; the Pacific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Central Asia &amp; Caucasus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. South West Asia/Middle East &amp; North Africa</t>
   </si>
 </sst>
 </file>
@@ -3081,4 +3103,330 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="n">
+        <v>288</v>
+      </c>
+      <c r="C2" t="n">
+        <v>83</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65</v>
+      </c>
+      <c r="E2" t="n">
+        <v>299</v>
+      </c>
+      <c r="F2" t="n">
+        <v>193</v>
+      </c>
+      <c r="G2" t="n">
+        <v>35</v>
+      </c>
+      <c r="H2" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="n">
+        <v>34</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="n">
+        <v>32</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="n">
+        <v>79</v>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22</v>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" t="n">
+        <v>46</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H5" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="n">
+        <v>92</v>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19</v>
+      </c>
+      <c r="E6" t="n">
+        <v>128</v>
+      </c>
+      <c r="F6" t="n">
+        <v>76</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="n">
+        <v>62</v>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="n">
+        <v>94</v>
+      </c>
+      <c r="F8" t="n">
+        <v>54</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="n">
+        <v>49</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>54</v>
+      </c>
+      <c r="F9" t="n">
+        <v>33</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="n">
+        <v>30</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="n">
+        <v>44</v>
+      </c>
+      <c r="C12" t="n">
+        <v>13</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>29</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Cuadros/q18_new_funder.xlsx
+++ b/Cuadros/q18_new_funder.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979FD5B6-C038-44A6-B130-215E23906619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="q18" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="q18_q4agrup" sheetId="6" state="visible" r:id="rId2"/>
-    <sheet name="q18_q5" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="q18_q6" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="q18_q9" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="q18_q10" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="q18_q4_total" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="q18_region" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="q18" sheetId="1" r:id="rId1"/>
+    <sheet name="q18_q4agrup" sheetId="6" r:id="rId2"/>
+    <sheet name="q18_q5" sheetId="2" r:id="rId3"/>
+    <sheet name="q18_q6" sheetId="3" r:id="rId4"/>
+    <sheet name="q18_q9" sheetId="4" r:id="rId5"/>
+    <sheet name="q18_q10" sheetId="5" r:id="rId6"/>
+    <sheet name="q18_q4_total" sheetId="7" r:id="rId7"/>
+    <sheet name="q18_region" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">q18_q10!$A$27:$L$36</definedName>
@@ -23,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="84">
   <si>
     <t>Source</t>
   </si>
@@ -196,93 +203,92 @@
     <t>Specific AWID subjects</t>
   </si>
   <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LGBTIQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Young</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex workers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anticaste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Countering anti-gender &amp; anti-rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harm reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disability rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multilateral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bilateral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philanthropic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Womens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goverment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No_new_funder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Latin America &amp; the Caribbean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Western Europe &amp; North America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Eastern, Southeast and Central Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Asia &amp; the Pacific</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Central Asia &amp; Caucasus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. South West Asia/Middle East &amp; North Africa</t>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>LGBTIQ</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Sex workers</t>
+  </si>
+  <si>
+    <t>Anticaste</t>
+  </si>
+  <si>
+    <t>Climate</t>
+  </si>
+  <si>
+    <t>Countering anti-gender &amp; anti-rights</t>
+  </si>
+  <si>
+    <t>Harm reduction</t>
+  </si>
+  <si>
+    <t>Disability rights</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Multilateral</t>
+  </si>
+  <si>
+    <t>Bilateral</t>
+  </si>
+  <si>
+    <t>Philanthropic</t>
+  </si>
+  <si>
+    <t>Womens</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Ingos</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Goverment</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>No_new_funder</t>
+  </si>
+  <si>
+    <t>1. Latin America &amp; the Caribbean</t>
+  </si>
+  <si>
+    <t>2. Western Europe &amp; North America</t>
+  </si>
+  <si>
+    <t>3. Eastern, Southeast and Central Europe</t>
+  </si>
+  <si>
+    <t>4. Africa</t>
+  </si>
+  <si>
+    <t>5. Asia &amp; the Pacific</t>
+  </si>
+  <si>
+    <t>6. Central Asia &amp; Caucasus</t>
+  </si>
+  <si>
+    <t>7. South West Asia/Middle East &amp; North Africa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -608,14 +614,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,91 +629,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>841</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>106</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>102</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>195</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>341</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>69</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>231</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>135</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>91</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>28</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>96</v>
       </c>
     </row>
@@ -718,14 +724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -763,79 +769,79 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>234</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>35</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>30</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>54</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>86</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>19</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>60</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>37</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>26</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>27</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>607</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>71</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>72</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>141</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>255</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>50</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>171</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>98</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>65</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>18</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>69</v>
       </c>
     </row>
@@ -846,14 +852,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -891,155 +897,155 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>108</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>11</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>18</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>49</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>19</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>18</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>3</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>18</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>707</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>95</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>95</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>170</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>284</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>63</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>204</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>111</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>87</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>24</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>78</v>
       </c>
     </row>
@@ -1050,14 +1056,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1095,231 +1101,231 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>9</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>50</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>9</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>21</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>7</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>8</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>14</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>8</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>234</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>18</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>14</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>49</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>99</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>22</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>55</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>48</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>36</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>8</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>24</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>424</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>57</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>58</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>81</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>184</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>32</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>135</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>51</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>40</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>14</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>44</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>101</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>16</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>38</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>39</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>26</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>16</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>23</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>5</v>
       </c>
     </row>
@@ -1330,14 +1336,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1375,193 +1381,193 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>83</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>7</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>13</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>31</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>23</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>15</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>6</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>15</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>261</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>28</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>22</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>112</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>23</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>71</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>44</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>24</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>7</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>27</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>166</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>18</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>18</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>41</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>60</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>12</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>43</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>20</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>19</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>8</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>27</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>192</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>36</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>33</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>48</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>89</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>14</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>53</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>26</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>19</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>7</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>139</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>22</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>43</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>49</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>18</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>41</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>30</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>23</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>11</v>
       </c>
     </row>
@@ -1572,21 +1578,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1624,354 +1630,354 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>68</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>7</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>27</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>16</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>8</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>4</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>114</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>8</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>18</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>47</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>33</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>20</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>14</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>99</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>10</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>17</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>50</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>24</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>12</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>125</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>24</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>52</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>7</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>33</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>20</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>76</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>18</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>29</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>27</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>10</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>13</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>95</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>11</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>23</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>36</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>11</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>31</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>7</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>9</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>4</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>144</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>29</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>25</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>39</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>56</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>15</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>43</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>27</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>18</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>8</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>28</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>11</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>13</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>11</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>8</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>49</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>12</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>31</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>16</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>7</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>19</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>6</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2009,354 +2015,354 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>46</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>16</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>7</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>9</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>4</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>4</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>9</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>93</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>7</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>14</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>33</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>6</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>24</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>19</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>17</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>105</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>13</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>52</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>8</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>32</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>11</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>14</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>13</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>143</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>21</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>18</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>27</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>65</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>5</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>39</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>22</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>16</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>4</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>75</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>8</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>7</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>16</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>36</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>5</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>18</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>9</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>11</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>115</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>19</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>13</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>25</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>36</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>11</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>43</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>12</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>14</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>8</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>10</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>162</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>31</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>27</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>45</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>62</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>19</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>48</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>25</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>16</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>5</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>15</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>33</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>5</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>12</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>14</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>8</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>3</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>1</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>5</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>57</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>12</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>19</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>36</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>21</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>12</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>10</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>22</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>6</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2394,345 +2400,345 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>20</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>10</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>3</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>2</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>2</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>3</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>85</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>6</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>6</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>10</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>28</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>4</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>20</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>16</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>7</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>3</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>16</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>95</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>7</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>4</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>17</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>35</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>5</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>22</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>15</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>9</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>2</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>17</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>149</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>14</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>14</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>21</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>67</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>10</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>44</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>22</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>17</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>2</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>16</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>98</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>13</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>10</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>19</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>48</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>6</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>30</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>11</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>9</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>6</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>8</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>114</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>15</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>28</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>45</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>7</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>33</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>13</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>16</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>6</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>12</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>176</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>28</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>46</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>69</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>20</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>56</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>26</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>18</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>5</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>16</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>41</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>7</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>15</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>17</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>2</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>14</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>7</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>2</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>3</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>63</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>13</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>21</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>39</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>22</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>14</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>9</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>23</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>9</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>0</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>5</v>
       </c>
     </row>
@@ -2744,14 +2750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -2780,340 +2786,340 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>292</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>361</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>171</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>23</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>268</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>218</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>90</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>190</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>31</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>49</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>20</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>30</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>31</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>16</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>25</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>37</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>52</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>14</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>33</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>27</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>9</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>25</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>73</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>81</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>41</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>60</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>63</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>11</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>41</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>122</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>164</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>81</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>7</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>112</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>82</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>26</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>90</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>27</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>32</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>19</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>22</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>23</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>8</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>21</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>71</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>111</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>37</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>96</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>55</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>28</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>59</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>73</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>56</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>58</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>29</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>47</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>38</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>20</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>41</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>74</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>27</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>34</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>17</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>27</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>21</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>10</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>28</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>7</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>6</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>6</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>76</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>40</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>44</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>20</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>29</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>30</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>13</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -3139,294 +3145,294 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>288</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>83</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>65</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>299</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>193</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>35</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>77</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>34</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>13</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>40</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>21</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>9</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>32</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>12</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>36</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>26</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>79</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>28</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>22</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>70</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>46</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>14</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>24</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>92</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>24</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>19</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>128</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>76</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>30</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>20</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>13</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>9</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>25</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>17</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>62</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>11</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>94</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>54</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>28</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>73</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>49</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>23</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>18</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>54</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>33</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>9</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>74</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>30</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>19</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>32</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>19</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>8</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>76</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>44</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>13</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>8</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>29</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>23</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Cuadros/q18_new_funder.xlsx
+++ b/Cuadros/q18_new_funder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979FD5B6-C038-44A6-B130-215E23906619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A6EDC7-B06B-4902-8A94-DA19E003D004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q18" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,20 @@
     <sheet name="q18_q5" sheetId="2" r:id="rId3"/>
     <sheet name="q18_q6" sheetId="3" r:id="rId4"/>
     <sheet name="q18_q9" sheetId="4" r:id="rId5"/>
-    <sheet name="q18_q10" sheetId="5" r:id="rId6"/>
-    <sheet name="q18_q4_total" sheetId="7" r:id="rId7"/>
-    <sheet name="q18_region" sheetId="8" r:id="rId8"/>
+    <sheet name="q18_q10_media" sheetId="9" r:id="rId6"/>
+    <sheet name="q18_q10" sheetId="5" r:id="rId7"/>
+    <sheet name="q18_q4_total" sheetId="7" r:id="rId8"/>
+    <sheet name="q18_region" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">q18_q10!$A$27:$L$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">q18_q10!$A$27:$L$36</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="85">
   <si>
     <t>Source</t>
   </si>
@@ -282,6 +283,9 @@
   </si>
   <si>
     <t>7. South West Asia/Middle East &amp; North Africa</t>
+  </si>
+  <si>
+    <t>Governments</t>
   </si>
 </sst>
 </file>
@@ -1578,6 +1582,370 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9941B66-9B59-4534-A7BE-E2BF1A8886BF}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>97</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>46</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>26</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>139</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>61</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>39</v>
+      </c>
+      <c r="I5">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>38</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>25</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>108</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>161</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <v>62</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>49</v>
+      </c>
+      <c r="I8">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -2749,7 +3117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -3111,11 +3479,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
